--- a/biology/Zoologie/Dama_(cervidé)/Dama_(cervidé).xlsx
+++ b/biology/Zoologie/Dama_(cervidé)/Dama_(cervidé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dama_(cervid%C3%A9)</t>
+          <t>Dama_(cervidé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dama comprend deux espèces de mammifères cervidés :
 Dama dama : daim
 Dama mesopotamica : daim de Perse
-Le daim de Perse peut être considéré comme une sous-espèce de daim sous le trinomial Dama dama mesopotamica[1].
+Le daim de Perse peut être considéré comme une sous-espèce de daim sous le trinomial Dama dama mesopotamica.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dama_(cervid%C3%A9)</t>
+          <t>Dama_(cervidé)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Préhistoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, les fossiles du Pléistocène moyen et du Pléistocène final sont proches du daim moderne ; mais plusieurs espèces et/ou sous-espèces distinctes du Pliocène et du début du Pléistocène sont concernées pour ce qui est de définir l'origine du daim moderne[2]. Selon Pfeiffer-Deml (2018), à la fin du Pliocène le daim se distingue morphologiquement de Cervus elaphus, Cervus nippon et Axis axis[3].
-Dama clactoniana (Falconer, 1868)[n 1], une race de daim disparue, est similaire au daim Dama dama[4],[5]. Selon certains auteurs (dont Kurtén 1968[6], Leonardi &amp; Petronio 1976[7]), il serait l'ancêtre du daim actuel. Mais les données morphologiques ne sont pas concluantes et la biochronologie des deux taxons est encore incertaine[8],[n 2]. Par ailleurs, d'autres sous-espèces interviennent :
-Plusieurs sites ont livré dans des couches datant du stade isotopique 7 (243 000 à 300 000 ans) des vestiges d'une espèce intermédiaire entre Dama clactoniana et le daim actuel. Stefano &amp; Petronio (1997) citent cette espèce intermédiaire comme une nouvelle espèce, Dama dama tiberina[8], et la considèrent comme un marqueur de la fin du Pléistocène moyen[10].
-Breda &amp; Lister (2013) placent Dama roberti au début du Pléistocène moyen. Pfeiffer-Deml (2018) considère que pendant le Pléistocène moyen, Dama mesopotamica est typique de l'est du bassin Méditerranéen et que Dama clactoniana est largement répandu à l'ouest[2]. Elle cite Dama geiselana comme influence possible sur les populations de daims de l'est du bassin méditerranéen[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, les fossiles du Pléistocène moyen et du Pléistocène final sont proches du daim moderne ; mais plusieurs espèces et/ou sous-espèces distinctes du Pliocène et du début du Pléistocène sont concernées pour ce qui est de définir l'origine du daim moderne. Selon Pfeiffer-Deml (2018), à la fin du Pliocène le daim se distingue morphologiquement de Cervus elaphus, Cervus nippon et Axis axis.
+Dama clactoniana (Falconer, 1868)[n 1], une race de daim disparue, est similaire au daim Dama dama,. Selon certains auteurs (dont Kurtén 1968, Leonardi &amp; Petronio 1976), il serait l'ancêtre du daim actuel. Mais les données morphologiques ne sont pas concluantes et la biochronologie des deux taxons est encore incertaine,[n 2]. Par ailleurs, d'autres sous-espèces interviennent :
+Plusieurs sites ont livré dans des couches datant du stade isotopique 7 (243 000 à 300 000 ans) des vestiges d'une espèce intermédiaire entre Dama clactoniana et le daim actuel. Stefano &amp; Petronio (1997) citent cette espèce intermédiaire comme une nouvelle espèce, Dama dama tiberina, et la considèrent comme un marqueur de la fin du Pléistocène moyen.
+Breda &amp; Lister (2013) placent Dama roberti au début du Pléistocène moyen. Pfeiffer-Deml (2018) considère que pendant le Pléistocène moyen, Dama mesopotamica est typique de l'est du bassin Méditerranéen et que Dama clactoniana est largement répandu à l'ouest. Elle cite Dama geiselana comme influence possible sur les populations de daims de l'est du bassin méditerranéen.
 </t>
         </is>
       </c>
